--- a/ope.ed.gov/2013/hate-crimes-noncampus-virginia-colleges-and-universities-crime-2013.xlsx
+++ b/ope.ed.gov/2013/hate-crimes-noncampus-virginia-colleges-and-universities-crime-2013.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Hate Crimes - Noncampus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,88 +31,88 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Race</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Religion</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Gender</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Disability</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Race</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Religion</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Gender</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Disability</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Race</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Religion</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Gender</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Disability</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible -Race</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Religion</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Gender</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Disability</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Ethnicity/National origin</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Race</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Religion</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Gender</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Disability</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Race</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Religion</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Gender</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Disability</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Race</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Religion</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Gender</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Disability</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible -Race</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Religion</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Gender</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Disability</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Robbery</t>
@@ -127,7 +124,7 @@
     <t>Robbery - Religion</t>
   </si>
   <si>
-    <t>Robbery - Sexual orientation</t>
+    <t>Robbery - Sexual Orientation</t>
   </si>
   <si>
     <t>Robbery - Gender</t>
@@ -136,28 +133,28 @@
     <t>Robbery - Disability</t>
   </si>
   <si>
-    <t>Robbery - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Aggravated assault</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Race</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Religion</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Gender</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Disability</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Ethnicity/National origin</t>
+    <t>Robbery - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Aggravated Assault</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Race</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Religion</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Gender</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Disability</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Burglary</t>
@@ -169,7 +166,7 @@
     <t>Burglary - Religion</t>
   </si>
   <si>
-    <t>Burglary - Sexual orientation</t>
+    <t>Burglary - Sexual Orientation</t>
   </si>
   <si>
     <t>Burglary - Gender</t>
@@ -178,28 +175,28 @@
     <t>Burglary - Disability</t>
   </si>
   <si>
-    <t>Burglary - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Race</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Religion</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Gender</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Disability</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Ethnicity/National origin</t>
+    <t>Burglary - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Race</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Religion</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Gender</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Disability</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Arson</t>
@@ -211,7 +208,7 @@
     <t>Arson - Religion</t>
   </si>
   <si>
-    <t>Arson - Sexual orientation</t>
+    <t>Arson - Sexual Orientation</t>
   </si>
   <si>
     <t>Arson - Gender</t>
@@ -220,49 +217,49 @@
     <t>Arson - Disability</t>
   </si>
   <si>
-    <t>Arson - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Simple assault</t>
-  </si>
-  <si>
-    <t>Simple assault - Race</t>
-  </si>
-  <si>
-    <t>Simple assault - Religion</t>
-  </si>
-  <si>
-    <t>Simple assault - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Simple assault - Gender</t>
-  </si>
-  <si>
-    <t>Simple assault - Disability</t>
-  </si>
-  <si>
-    <t>Simple assault - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Larceny-theft</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Race</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Religion</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Gender</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Disability</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Ethnicity/National origin</t>
+    <t>Arson - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Simple Assault</t>
+  </si>
+  <si>
+    <t>Simple Assault - Race</t>
+  </si>
+  <si>
+    <t>Simple Assault - Religion</t>
+  </si>
+  <si>
+    <t>Simple Assault - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Simple Assault - Gender</t>
+  </si>
+  <si>
+    <t>Simple Assault - Disability</t>
+  </si>
+  <si>
+    <t>Simple Assault - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Larceny-Theft</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Race</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Religion</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Gender</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Disability</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Intimidation</t>
@@ -274,7 +271,7 @@
     <t>Intimidation - Religion</t>
   </si>
   <si>
-    <t>Intimidation - Sexual orientation</t>
+    <t>Intimidation - Sexual Orientation</t>
   </si>
   <si>
     <t>Intimidation - Gender</t>
@@ -283,28 +280,28 @@
     <t>Intimidation - Disability</t>
   </si>
   <si>
-    <t>Intimidation - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Race</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Religion</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Gender</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Disability</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Ethnicity/National origin</t>
+    <t>Intimidation - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Race</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Religion</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Gender</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Disability</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Advanced Technology Institute</t>
@@ -853,298 +850,565 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
+      <c t="s" s="1" r="P1">
+        <v>15</v>
+      </c>
+      <c t="s" s="1" r="Q1">
+        <v>16</v>
+      </c>
+      <c t="s" s="1" r="R1">
+        <v>17</v>
+      </c>
+      <c t="s" s="1" r="S1">
+        <v>18</v>
+      </c>
+      <c t="s" s="1" r="T1">
+        <v>19</v>
+      </c>
+      <c t="s" s="1" r="U1">
+        <v>20</v>
+      </c>
+      <c t="s" s="1" r="V1">
+        <v>21</v>
+      </c>
+      <c t="s" s="1" r="W1">
+        <v>22</v>
+      </c>
+      <c t="s" s="1" r="X1">
+        <v>23</v>
+      </c>
+      <c t="s" s="1" r="Y1">
+        <v>24</v>
+      </c>
+      <c t="s" s="1" r="Z1">
+        <v>25</v>
+      </c>
+      <c t="s" s="1" r="AA1">
+        <v>26</v>
+      </c>
+      <c t="s" s="1" r="AB1">
+        <v>27</v>
+      </c>
+      <c t="s" s="1" r="AC1">
+        <v>28</v>
+      </c>
+      <c t="s" s="1" r="AD1">
+        <v>29</v>
+      </c>
+      <c t="s" s="1" r="AE1">
+        <v>30</v>
+      </c>
+      <c t="s" s="1" r="AF1">
+        <v>31</v>
+      </c>
+      <c t="s" s="1" r="AG1">
+        <v>32</v>
+      </c>
+      <c t="s" s="1" r="AH1">
+        <v>33</v>
+      </c>
+      <c t="s" s="1" r="AI1">
+        <v>34</v>
+      </c>
+      <c t="s" s="1" r="AJ1">
+        <v>35</v>
+      </c>
+      <c t="s" s="1" r="AK1">
+        <v>36</v>
+      </c>
+      <c t="s" s="1" r="AL1">
+        <v>37</v>
+      </c>
+      <c t="s" s="1" r="AM1">
+        <v>38</v>
+      </c>
+      <c t="s" s="1" r="AN1">
+        <v>39</v>
+      </c>
+      <c t="s" s="1" r="AO1">
+        <v>40</v>
+      </c>
+      <c t="s" s="1" r="AP1">
+        <v>41</v>
+      </c>
+      <c t="s" s="1" r="AQ1">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="AR1">
+        <v>43</v>
+      </c>
+      <c t="s" s="1" r="AS1">
+        <v>44</v>
+      </c>
+      <c t="s" s="1" r="AT1">
+        <v>45</v>
+      </c>
+      <c t="s" s="1" r="AU1">
+        <v>46</v>
+      </c>
+      <c t="s" s="1" r="AV1">
+        <v>47</v>
+      </c>
+      <c t="s" s="1" r="AW1">
+        <v>48</v>
+      </c>
+      <c t="s" s="1" r="AX1">
+        <v>49</v>
+      </c>
+      <c t="s" s="1" r="AY1">
+        <v>50</v>
+      </c>
+      <c t="s" s="1" r="AZ1">
+        <v>51</v>
+      </c>
+      <c t="s" s="1" r="BA1">
+        <v>52</v>
+      </c>
+      <c t="s" s="1" r="BB1">
+        <v>53</v>
+      </c>
+      <c t="s" s="1" r="BC1">
+        <v>54</v>
+      </c>
+      <c t="s" s="1" r="BD1">
+        <v>55</v>
+      </c>
+      <c t="s" s="1" r="BE1">
+        <v>56</v>
+      </c>
+      <c t="s" s="1" r="BF1">
+        <v>57</v>
+      </c>
+      <c t="s" s="1" r="BG1">
+        <v>58</v>
+      </c>
+      <c t="s" s="1" r="BH1">
+        <v>59</v>
+      </c>
+      <c t="s" s="1" r="BI1">
+        <v>60</v>
+      </c>
+      <c t="s" s="1" r="BJ1">
+        <v>61</v>
+      </c>
+      <c t="s" s="1" r="BK1">
+        <v>62</v>
+      </c>
+      <c t="s" s="1" r="BL1">
+        <v>63</v>
+      </c>
+      <c t="s" s="1" r="BM1">
+        <v>64</v>
+      </c>
+      <c t="s" s="1" r="BN1">
+        <v>65</v>
+      </c>
+      <c t="s" s="1" r="BO1">
+        <v>66</v>
+      </c>
+      <c t="s" s="1" r="BP1">
+        <v>67</v>
+      </c>
+      <c t="s" s="1" r="BQ1">
+        <v>68</v>
+      </c>
+      <c t="s" s="1" r="BR1">
+        <v>69</v>
+      </c>
+      <c t="s" s="1" r="BS1">
+        <v>70</v>
+      </c>
+      <c t="s" s="1" r="BT1">
+        <v>71</v>
+      </c>
+      <c t="s" s="1" r="BU1">
+        <v>72</v>
+      </c>
+      <c t="s" s="1" r="BV1">
+        <v>73</v>
+      </c>
+      <c t="s" s="1" r="BW1">
+        <v>74</v>
+      </c>
+      <c t="s" s="1" r="BX1">
+        <v>75</v>
+      </c>
+      <c t="s" s="1" r="BY1">
+        <v>76</v>
+      </c>
+      <c t="s" s="1" r="BZ1">
+        <v>77</v>
+      </c>
+      <c t="s" s="1" r="CA1">
+        <v>78</v>
+      </c>
+      <c t="s" s="1" r="CB1">
+        <v>79</v>
+      </c>
+      <c t="s" s="1" r="CC1">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="CD1">
+        <v>81</v>
+      </c>
+      <c t="s" s="1" r="CE1">
+        <v>82</v>
+      </c>
+      <c t="s" s="1" r="CF1">
+        <v>83</v>
+      </c>
+      <c t="s" s="1" r="CG1">
+        <v>84</v>
+      </c>
+      <c t="s" s="1" r="CH1">
+        <v>85</v>
+      </c>
+      <c t="s" s="1" r="CI1">
+        <v>86</v>
+      </c>
+      <c t="s" s="1" r="CJ1">
+        <v>87</v>
+      </c>
+      <c t="s" s="1" r="CK1">
+        <v>88</v>
+      </c>
+      <c t="s" s="1" r="CL1">
+        <v>89</v>
+      </c>
+      <c t="s" s="1" r="CM1">
+        <v>90</v>
+      </c>
+      <c t="s" s="1" r="CN1">
+        <v>91</v>
+      </c>
+      <c t="s" s="1" r="CO1">
+        <v>92</v>
+      </c>
+      <c t="s" s="1" r="CP1">
+        <v>93</v>
+      </c>
+      <c t="s" s="1" r="CQ1">
+        <v>94</v>
+      </c>
+      <c t="s" s="1" r="CR1">
+        <v>95</v>
+      </c>
+      <c t="s" s="1" r="CS1">
+        <v>96</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2013.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>97</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
-      </c>
-      <c t="s" s="1" r="P2">
-        <v>16</v>
-      </c>
-      <c t="s" s="1" r="Q2">
-        <v>17</v>
-      </c>
-      <c t="s" s="1" r="R2">
-        <v>18</v>
-      </c>
-      <c t="s" s="1" r="S2">
-        <v>19</v>
-      </c>
-      <c t="s" s="1" r="T2">
-        <v>20</v>
-      </c>
-      <c t="s" s="1" r="U2">
-        <v>21</v>
-      </c>
-      <c t="s" s="1" r="V2">
-        <v>22</v>
-      </c>
-      <c t="s" s="1" r="W2">
-        <v>23</v>
-      </c>
-      <c t="s" s="1" r="X2">
-        <v>24</v>
-      </c>
-      <c t="s" s="1" r="Y2">
-        <v>25</v>
-      </c>
-      <c t="s" s="1" r="Z2">
-        <v>26</v>
-      </c>
-      <c t="s" s="1" r="AA2">
-        <v>27</v>
-      </c>
-      <c t="s" s="1" r="AB2">
-        <v>28</v>
-      </c>
-      <c t="s" s="1" r="AC2">
-        <v>29</v>
-      </c>
-      <c t="s" s="1" r="AD2">
-        <v>30</v>
-      </c>
-      <c t="s" s="1" r="AE2">
-        <v>31</v>
-      </c>
-      <c t="s" s="1" r="AF2">
-        <v>32</v>
-      </c>
-      <c t="s" s="1" r="AG2">
-        <v>33</v>
-      </c>
-      <c t="s" s="1" r="AH2">
-        <v>34</v>
-      </c>
-      <c t="s" s="1" r="AI2">
-        <v>35</v>
-      </c>
-      <c t="s" s="1" r="AJ2">
-        <v>36</v>
-      </c>
-      <c t="s" s="1" r="AK2">
-        <v>37</v>
-      </c>
-      <c t="s" s="1" r="AL2">
-        <v>38</v>
-      </c>
-      <c t="s" s="1" r="AM2">
-        <v>39</v>
-      </c>
-      <c t="s" s="1" r="AN2">
-        <v>40</v>
-      </c>
-      <c t="s" s="1" r="AO2">
-        <v>41</v>
-      </c>
-      <c t="s" s="1" r="AP2">
-        <v>42</v>
-      </c>
-      <c t="s" s="1" r="AQ2">
-        <v>43</v>
-      </c>
-      <c t="s" s="1" r="AR2">
-        <v>44</v>
-      </c>
-      <c t="s" s="1" r="AS2">
-        <v>45</v>
-      </c>
-      <c t="s" s="1" r="AT2">
-        <v>46</v>
-      </c>
-      <c t="s" s="1" r="AU2">
-        <v>47</v>
-      </c>
-      <c t="s" s="1" r="AV2">
-        <v>48</v>
-      </c>
-      <c t="s" s="1" r="AW2">
-        <v>49</v>
-      </c>
-      <c t="s" s="1" r="AX2">
-        <v>50</v>
-      </c>
-      <c t="s" s="1" r="AY2">
-        <v>51</v>
-      </c>
-      <c t="s" s="1" r="AZ2">
-        <v>52</v>
-      </c>
-      <c t="s" s="1" r="BA2">
-        <v>53</v>
-      </c>
-      <c t="s" s="1" r="BB2">
-        <v>54</v>
-      </c>
-      <c t="s" s="1" r="BC2">
-        <v>55</v>
-      </c>
-      <c t="s" s="1" r="BD2">
-        <v>56</v>
-      </c>
-      <c t="s" s="1" r="BE2">
-        <v>57</v>
-      </c>
-      <c t="s" s="1" r="BF2">
-        <v>58</v>
-      </c>
-      <c t="s" s="1" r="BG2">
-        <v>59</v>
-      </c>
-      <c t="s" s="1" r="BH2">
-        <v>60</v>
-      </c>
-      <c t="s" s="1" r="BI2">
-        <v>61</v>
-      </c>
-      <c t="s" s="1" r="BJ2">
-        <v>62</v>
-      </c>
-      <c t="s" s="1" r="BK2">
-        <v>63</v>
-      </c>
-      <c t="s" s="1" r="BL2">
-        <v>64</v>
-      </c>
-      <c t="s" s="1" r="BM2">
-        <v>65</v>
-      </c>
-      <c t="s" s="1" r="BN2">
-        <v>66</v>
-      </c>
-      <c t="s" s="1" r="BO2">
-        <v>67</v>
-      </c>
-      <c t="s" s="1" r="BP2">
-        <v>68</v>
-      </c>
-      <c t="s" s="1" r="BQ2">
-        <v>69</v>
-      </c>
-      <c t="s" s="1" r="BR2">
-        <v>70</v>
-      </c>
-      <c t="s" s="1" r="BS2">
-        <v>71</v>
-      </c>
-      <c t="s" s="1" r="BT2">
-        <v>72</v>
-      </c>
-      <c t="s" s="1" r="BU2">
-        <v>73</v>
-      </c>
-      <c t="s" s="1" r="BV2">
-        <v>74</v>
-      </c>
-      <c t="s" s="1" r="BW2">
-        <v>75</v>
-      </c>
-      <c t="s" s="1" r="BX2">
-        <v>76</v>
-      </c>
-      <c t="s" s="1" r="BY2">
-        <v>77</v>
-      </c>
-      <c t="s" s="1" r="BZ2">
-        <v>78</v>
-      </c>
-      <c t="s" s="1" r="CA2">
-        <v>79</v>
-      </c>
-      <c t="s" s="1" r="CB2">
-        <v>80</v>
-      </c>
-      <c t="s" s="1" r="CC2">
-        <v>81</v>
-      </c>
-      <c t="s" s="1" r="CD2">
-        <v>82</v>
-      </c>
-      <c t="s" s="1" r="CE2">
-        <v>83</v>
-      </c>
-      <c t="s" s="1" r="CF2">
-        <v>84</v>
-      </c>
-      <c t="s" s="1" r="CG2">
-        <v>85</v>
-      </c>
-      <c t="s" s="1" r="CH2">
-        <v>86</v>
-      </c>
-      <c t="s" s="1" r="CI2">
-        <v>87</v>
-      </c>
-      <c t="s" s="1" r="CJ2">
-        <v>88</v>
-      </c>
-      <c t="s" s="1" r="CK2">
-        <v>89</v>
-      </c>
-      <c t="s" s="1" r="CL2">
-        <v>90</v>
-      </c>
-      <c t="s" s="1" r="CM2">
-        <v>91</v>
-      </c>
-      <c t="s" s="1" r="CN2">
-        <v>92</v>
-      </c>
-      <c t="s" s="1" r="CO2">
-        <v>93</v>
-      </c>
-      <c t="s" s="1" r="CP2">
-        <v>94</v>
-      </c>
-      <c t="s" s="1" r="CQ2">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="CR2">
-        <v>96</v>
-      </c>
-      <c t="s" s="1" r="CS2">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c s="1" r="F2">
+        <v>824.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="U2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="V2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="W2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="X2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="Y2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="Z2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AA2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AB2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AC2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AD2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AE2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AF2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AG2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AH2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AI2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AJ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AK2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AL2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AM2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AN2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AO2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AP2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AQ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AR2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AS2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AT2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AU2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AV2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AW2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AX2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AY2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AZ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BA2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BB2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BC2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BD2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BE2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BF2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BG2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BH2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BI2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BJ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BK2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BL2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BM2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BN2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BO2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BP2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BQ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BR2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BS2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BT2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BU2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BV2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BW2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BX2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BY2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BZ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CA2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CB2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CC2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CD2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CE2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CF2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CG2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CH2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CI2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CJ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CK2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CL2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CM2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CN2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CO2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CP2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CQ2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CR2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="CS2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1152,19 +1416,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B3">
-        <v>231411.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F3">
-        <v>824.0</v>
+        <v>219.0</v>
       </c>
       <c s="1" r="G3">
         <v>0.0</v>
@@ -1424,19 +1688,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B4">
-        <v>432348.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D4">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F4">
-        <v>219.0</v>
+        <v>906.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -1696,19 +1960,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231420.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D5">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F5">
-        <v>906.0</v>
+        <v>1221.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -1971,13 +2235,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F6">
         <v>1221.0</v>
@@ -2243,13 +2507,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D7">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F7">
         <v>1221.0</v>
@@ -2512,19 +2776,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B8">
-        <v>449931.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D8">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F8">
-        <v>1221.0</v>
+        <v>842.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
@@ -2784,19 +3048,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B9">
-        <v>231554.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F9">
-        <v>842.0</v>
+        <v>1848.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -3056,19 +3320,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B10">
-        <v>231581.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F10">
-        <v>1848.0</v>
+        <v>728.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
@@ -3328,19 +3592,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B11">
-        <v>231785.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D11">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F11">
-        <v>728.0</v>
+        <v>5232.0</v>
       </c>
       <c s="1" r="G11">
         <v>0.0</v>
@@ -3600,19 +3864,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B12">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D12">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F12">
-        <v>5232.0</v>
+        <v>8376.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
@@ -3875,13 +4139,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D13">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F13">
         <v>8376.0</v>
@@ -4144,19 +4408,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B14">
-        <v>231624.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D14">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F14">
-        <v>8376.0</v>
+        <v>1312.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -4416,19 +4680,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B15">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F15">
-        <v>1312.0</v>
+        <v>4280.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -4688,19 +4952,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B16">
-        <v>231882.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F16">
-        <v>4280.0</v>
+        <v>1640.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -4960,19 +5224,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B17">
-        <v>232043.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F17">
-        <v>1640.0</v>
+        <v>1017.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -5232,19 +5496,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B18">
-        <v>231970.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F18">
-        <v>1017.0</v>
+        <v>10845.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -5507,13 +5771,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D19">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F19">
         <v>10845.0</v>
@@ -5776,19 +6040,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B20">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D20">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F20">
-        <v>10845.0</v>
+        <v>1278.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -6051,13 +6315,13 @@
         <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D21">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F21">
         <v>1278.0</v>
@@ -6320,19 +6584,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B22">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D22">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F22">
-        <v>1278.0</v>
+        <v>959.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -6592,19 +6856,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232025.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F23">
-        <v>959.0</v>
+        <v>1512.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -6864,19 +7128,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F24">
-        <v>1512.0</v>
+        <v>33917.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -7136,19 +7400,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B25">
-        <v>232186.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F25">
-        <v>33917.0</v>
+        <v>1070.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -7408,19 +7672,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B26">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F26">
-        <v>1070.0</v>
+        <v>4622.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -7680,19 +7944,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B27">
-        <v>232265.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F27">
-        <v>4622.0</v>
+        <v>750.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -7952,19 +8216,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B28">
-        <v>232308.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F28">
-        <v>750.0</v>
+        <v>20181.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -8224,19 +8488,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B29">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F29">
-        <v>20181.0</v>
+        <v>1039.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -8496,19 +8760,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B30">
-        <v>231837.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F30">
-        <v>1039.0</v>
+        <v>77338.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -8768,19 +9032,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B31">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F31">
-        <v>77338.0</v>
+        <v>4960.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -9043,13 +9307,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D32">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F32">
         <v>4960.0</v>
@@ -9315,13 +9579,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D33">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F33">
         <v>4960.0</v>
@@ -9584,19 +9848,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B34">
-        <v>232566.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D34">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F34">
-        <v>4960.0</v>
+        <v>2713.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -9856,19 +10120,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B35">
-        <v>232609.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F35">
-        <v>2713.0</v>
+        <v>3486.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -10128,19 +10392,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B36">
-        <v>232706.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F36">
-        <v>3486.0</v>
+        <v>2924.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -10400,19 +10664,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B37">
-        <v>232788.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F37">
-        <v>2924.0</v>
+        <v>51803.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -10675,13 +10939,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D38">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F38">
         <v>51803.0</v>
@@ -10947,13 +11211,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D39">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F39">
         <v>51803.0</v>
@@ -11219,13 +11483,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D40">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F40">
         <v>51803.0</v>
@@ -11491,13 +11755,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D41">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F41">
         <v>51803.0</v>
@@ -11763,13 +12027,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D42">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F42">
         <v>51803.0</v>
@@ -12035,13 +12299,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D43">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F43">
         <v>51803.0</v>
@@ -12307,13 +12571,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D44">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F44">
         <v>51803.0</v>
@@ -12579,13 +12843,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D45">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F45">
         <v>51803.0</v>
@@ -12851,13 +13115,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D46">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F46">
         <v>51803.0</v>
@@ -13123,13 +13387,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D47">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F47">
         <v>51803.0</v>
@@ -13395,13 +13659,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D48">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F48">
         <v>51803.0</v>
@@ -13667,13 +13931,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D49">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F49">
         <v>51803.0</v>
@@ -13939,13 +14203,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D50">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F50">
         <v>51803.0</v>
@@ -14208,19 +14472,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B51">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D51">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F51">
-        <v>51803.0</v>
+        <v>24828.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -14480,19 +14744,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B52">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F52">
-        <v>24828.0</v>
+        <v>3163.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -14752,19 +15016,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B53">
-        <v>233019.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F53">
-        <v>3163.0</v>
+        <v>5630.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -15027,13 +15291,13 @@
         <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D54">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F54">
         <v>5630.0</v>
@@ -15296,19 +15560,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B55">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D55">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F55">
-        <v>5630.0</v>
+        <v>9928.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -15568,19 +15832,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B56">
-        <v>233277.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D56">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F56">
-        <v>9928.0</v>
+        <v>3555.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -15840,19 +16104,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B57">
-        <v>233310.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F57">
-        <v>3555.0</v>
+        <v>4003.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
@@ -16112,19 +16376,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B58">
-        <v>233541.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D58">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F58">
-        <v>4003.0</v>
+        <v>662.0</v>
       </c>
       <c s="1" r="G58">
         <v>0.0</v>
@@ -16384,19 +16648,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B59">
-        <v>233611.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D59">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F59">
-        <v>662.0</v>
+        <v>5784.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -16609,7 +16873,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CF59">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CG59">
         <v>0.0</v>
@@ -16618,7 +16882,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CI59">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="CJ59">
         <v>0.0</v>
@@ -16656,19 +16920,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B60">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D60">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F60">
-        <v>5784.0</v>
+        <v>2630.0</v>
       </c>
       <c s="1" r="G60">
         <v>0.0</v>
@@ -16881,7 +17145,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CF60">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CG60">
         <v>0.0</v>
@@ -16890,7 +17154,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CI60">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="CJ60">
         <v>0.0</v>
@@ -16928,19 +17192,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B61">
-        <v>233648.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D61">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F61">
-        <v>2630.0</v>
+        <v>710.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -17200,19 +17464,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B62">
-        <v>233718.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D62">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F62">
-        <v>710.0</v>
+        <v>1499.0</v>
       </c>
       <c s="1" r="G62">
         <v>0.0</v>
@@ -17472,19 +17736,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B63">
-        <v>440341.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D63">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F63">
-        <v>1499.0</v>
+        <v>2291.0</v>
       </c>
       <c s="1" r="G63">
         <v>0.0</v>
@@ -17744,19 +18008,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B64">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D64">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F64">
-        <v>2291.0</v>
+        <v>11033.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -18016,19 +18280,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B65">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D65">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F65">
-        <v>11033.0</v>
+        <v>28999.0</v>
       </c>
       <c s="1" r="G65">
         <v>0.0</v>
@@ -18291,13 +18555,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D66">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F66">
         <v>28999.0</v>
@@ -18560,19 +18824,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B67">
-        <v>233772.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D67">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F67">
-        <v>28999.0</v>
+        <v>4831.0</v>
       </c>
       <c s="1" r="G67">
         <v>0.0</v>
@@ -18835,13 +19099,13 @@
         <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D68">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F68">
         <v>4831.0</v>
@@ -19104,19 +19368,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B69">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D69">
         <v>2.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F69">
-        <v>4831.0</v>
+        <v>865.0</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
@@ -19376,19 +19640,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B70">
-        <v>442189.0</v>
+        <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D70">
         <v>2.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F70">
-        <v>865.0</v>
+        <v>706.0</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
@@ -19648,19 +19912,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B71">
-        <v>446756.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D71">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F71">
-        <v>706.0</v>
+        <v>4140.0</v>
       </c>
       <c s="1" r="G71">
         <v>0.0</v>
@@ -19920,19 +20184,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B72">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D72">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F72">
-        <v>4140.0</v>
+        <v>23464.0</v>
       </c>
       <c s="1" r="G72">
         <v>0.0</v>
@@ -20192,19 +20456,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B73">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D73">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F73">
-        <v>23464.0</v>
+        <v>30974.0</v>
       </c>
       <c s="1" r="G73">
         <v>0.0</v>
@@ -20467,13 +20731,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D74">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F74">
         <v>30974.0</v>
@@ -20736,19 +21000,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B75">
-        <v>234030.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D75">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F75">
-        <v>30974.0</v>
+        <v>1675.0</v>
       </c>
       <c s="1" r="G75">
         <v>0.0</v>
@@ -21008,19 +21272,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B76">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D76">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F76">
-        <v>1675.0</v>
+        <v>31205.0</v>
       </c>
       <c s="1" r="G76">
         <v>0.0</v>
@@ -21280,19 +21544,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B77">
-        <v>233921.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D77">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F77">
-        <v>31205.0</v>
+        <v>582.0</v>
       </c>
       <c s="1" r="G77">
         <v>0.0</v>
@@ -21552,19 +21816,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B78">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D78">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F78">
-        <v>582.0</v>
+        <v>1459.0</v>
       </c>
       <c s="1" r="G78">
         <v>0.0</v>
@@ -21824,19 +22088,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B79">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D79">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F79">
-        <v>1459.0</v>
+        <v>8654.0</v>
       </c>
       <c s="1" r="G79">
         <v>0.0</v>
@@ -22096,19 +22360,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B80">
-        <v>233949.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D80">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F80">
-        <v>8654.0</v>
+        <v>2277.0</v>
       </c>
       <c s="1" r="G80">
         <v>0.0</v>
@@ -22368,19 +22632,19 @@
         <v>2013.0</v>
       </c>
       <c s="1" r="B81">
-        <v>234207.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D81">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="F81">
-        <v>2277.0</v>
+        <v>3468.0</v>
       </c>
       <c s="1" r="G81">
         <v>0.0</v>
@@ -22632,278 +22896,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="CS81">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c s="1" r="A82">
-        <v>2013.0</v>
-      </c>
-      <c s="1" r="B82">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C82">
-        <v>256</v>
-      </c>
-      <c s="1" r="D82">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E82">
-        <v>257</v>
-      </c>
-      <c s="1" r="F82">
-        <v>3468.0</v>
-      </c>
-      <c s="1" r="G82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="U82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="V82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="W82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="X82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="Y82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="Z82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AA82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AB82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AC82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AD82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AE82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AF82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AG82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AH82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AI82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AJ82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AK82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AL82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AM82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AN82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AO82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AP82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AQ82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AR82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AS82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AT82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AU82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AV82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AW82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AX82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AY82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AZ82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BA82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BB82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BC82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BD82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BE82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BF82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BG82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BH82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BI82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BJ82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BK82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BL82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BM82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BN82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BO82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BP82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BQ82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BR82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BS82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BT82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BU82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BV82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BW82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BX82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BY82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BZ82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CA82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CB82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CC82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CD82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CE82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CF82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CG82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CH82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CI82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CJ82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CK82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CL82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CM82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CN82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CO82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CP82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CQ82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CR82">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="CS82">
         <v>0.0</v>
       </c>
     </row>
